--- a/04_OOP_Laravel/05_oop_solid/HW/vsc_school.xlsx
+++ b/04_OOP_Laravel/05_oop_solid/HW/vsc_school.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -258,13 +259,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -618,10 +619,10 @@
       <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="3"/>
+      <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -651,7 +652,7 @@
       <c r="Q2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -683,7 +684,7 @@
       <c r="Q3" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -776,7 +777,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C1" t="s">
